--- a/square-10mm.xlsx
+++ b/square-10mm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasek\PythonWork\excelstl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0885C-2FC5-4178-B8ED-6C259A497240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FFA6B0-C87F-43E8-A506-90EE341A3B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77886820-7329-43A8-804D-CA62528B2AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77886820-7329-43A8-804D-CA62528B2AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02F8D62-F15F-44A0-B49C-9C4FCDA97691}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -442,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79927EF5-6B27-4D2A-BA6A-89BA7B07AAA6}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
